--- a/regionseng/3/infrastructure/infrastructure.xlsx
+++ b/regionseng/3/infrastructure/infrastructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -93,11 +93,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,7 +233,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +278,13 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -582,19 +595,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="18"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -609,8 +624,10 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2011</v>
@@ -645,8 +662,14 @@
       <c r="L2" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="4">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -683,8 +706,14 @@
       <c r="L3" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="9">
+        <v>100</v>
+      </c>
+      <c r="N3" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="8"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -696,7 +725,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -706,7 +735,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1">
+    <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
@@ -721,8 +750,10 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4">
         <v>2011</v>
@@ -757,8 +788,14 @@
       <c r="L7" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="4">
+        <v>2022</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -795,8 +832,14 @@
       <c r="L8" s="10">
         <v>71.332605677439133</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="10">
+        <v>75.693005973995213</v>
+      </c>
+      <c r="N8" s="19">
+        <v>86.66513906777088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -811,8 +854,10 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -824,7 +869,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1">
+    <row r="12" spans="1:14" ht="30" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>10</v>
       </c>
@@ -839,8 +884,10 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2011</v>
@@ -875,8 +922,14 @@
       <c r="L13" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -913,8 +966,14 @@
       <c r="L14" s="11">
         <v>47.716228697034396</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="11">
+        <v>54.545970958859989</v>
+      </c>
+      <c r="N14" s="11">
+        <v>54.696360079043899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
@@ -951,8 +1010,14 @@
       <c r="L15" s="11">
         <v>2.8240742377885217</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="11">
+        <v>0.39360986045202312</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.2893061015396881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
@@ -989,8 +1054,14 @@
       <c r="L16" s="11">
         <v>30.886037446157275</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="11">
+        <v>30.731956083868514</v>
+      </c>
+      <c r="N16" s="11">
+        <v>31.430836916938592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.25">
       <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1098,14 @@
       <c r="L17" s="11">
         <v>18.573659619019814</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="11">
+        <v>14.328463096819474</v>
+      </c>
+      <c r="N17" s="11">
+        <v>12.583496902477826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.25">
       <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1142,14 @@
       <c r="L18" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1164,10 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1096,11 +1181,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
